--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>600140.3967378362</v>
+        <v>597171.6177738128</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692567</v>
+        <v>7757679.400320143</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12162664.64504643</v>
+        <v>12163408.26182196</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>351.4907066044592</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>210.3749018500037</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.21854402607445</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>211.182961130578</v>
       </c>
       <c r="E5" t="n">
-        <v>44.60086184591383</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,7 +947,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>127.004412707233</v>
       </c>
       <c r="S7" t="n">
-        <v>3.888834254466483</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>115.3581938052737</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>195.2026164713296</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>82.92375604299549</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>48.60603564323178</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>78.61867634065898</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>294.607764387321</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>113.510364625081</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>86.35257921647575</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>137.2338132090249</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,7 +2056,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620235</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>162.6915022594779</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>248.5806663501712</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492329</v>
       </c>
       <c r="C25" t="n">
-        <v>81.73686178476133</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,10 +2530,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>215.0272781269972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>56.97285057263343</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>234.0331318488863</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,10 +3044,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292626</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247757</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734101046</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>134.0393882137403</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S34" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968153</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793847</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869117</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881659</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286617</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672378</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>86.18127395074747</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624733</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388354</v>
+        <v>83.07736723265401</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4748644679989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>347.7039243400717</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.670805166879</v>
+        <v>175.5610162827832</v>
       </c>
       <c r="C40" t="n">
-        <v>163.0856460835695</v>
+        <v>162.9758571994738</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>144.3445091190583</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315109</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>141.1500841237772</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621086</v>
+        <v>20.69089151859965</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935071</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602526</v>
+        <v>62.90978769192939</v>
       </c>
       <c r="S40" t="n">
-        <v>100.1070093584882</v>
+        <v>177.0675244593049</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477035</v>
+        <v>213.2110305636077</v>
       </c>
       <c r="U40" t="n">
-        <v>282.0242765333621</v>
+        <v>281.9144876492664</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087697</v>
+        <v>247.8666794246739</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215327</v>
+        <v>282.252034437437</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739788</v>
+        <v>221.4386914898831</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370365</v>
+        <v>214.3136894529407</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839574</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035419</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318987</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082608</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624965</v>
       </c>
       <c r="H43" t="n">
-        <v>116.010065354184</v>
+        <v>115.3590671772837</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973851</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.085828976413</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480914</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.09052893375</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743667</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839574</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035419</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>121.3390400318987</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082608</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624965</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.7096541297385</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.08582897641298</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437885</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480914</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.09052893375</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219205</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743667</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.4755035807</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2308.471702473803</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2054.709917111894</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2054.709917111894</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1701.94126184178</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1328.4755035807</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1328.4755035807</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,13 +4416,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>416.5124000972908</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1404.597857825387</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C5" t="n">
-        <v>1035.635340884975</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="D5" t="n">
-        <v>677.3696422782245</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.597857825387</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="6">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S7" t="n">
-        <v>576.0542102320662</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>348.7460229006679</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.75737613363</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>787.7948591932184</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
         <v>402.0066065949742</v>
@@ -4796,58 +4796,58 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2525.596973462581</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2306.962306434643</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.962306434643</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2306.962306434643</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2306.962306434643</v>
+        <v>1520.337903526926</v>
       </c>
       <c r="X8" t="n">
-        <v>1933.496548173563</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1543.357216197752</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>103.0399875205986</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="X10" t="n">
-        <v>470.722514162039</v>
+        <v>137.7043515607639</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185089</v>
+        <v>137.7043515607639</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001584</v>
@@ -5036,40 +5036,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>332.6065287858767</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>666.4259024757232</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L11" t="n">
-        <v>1530.944718129078</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M11" t="n">
-        <v>2064.476622801003</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.228895027649</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906986</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353932</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604875</v>
@@ -5115,7 +5115,7 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.238303939012</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>488.8938622403217</v>
+        <v>260.9043113423043</v>
       </c>
       <c r="C13" t="n">
-        <v>488.8938622403217</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>488.8938622403217</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>488.8938622403217</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5233,16 +5233,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W13" t="n">
         <v>709.6864413838518</v>
       </c>
       <c r="X13" t="n">
-        <v>709.6864413838518</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y13" t="n">
-        <v>488.8938622403217</v>
+        <v>260.9043113423043</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001591</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>634.8921067227626</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.926319971172</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M14" t="n">
-        <v>2064.476622801</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.228895027647</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906984</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5394,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.4103109586945</v>
+        <v>210.2179684131227</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783411</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W16" t="n">
-        <v>822.0483266869514</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X16" t="n">
-        <v>594.0587757889342</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.0587757889342</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5516,25 +5516,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M17" t="n">
-        <v>2628.734306600803</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N17" t="n">
-        <v>3175.513123659585</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O17" t="n">
-        <v>3678.485594538922</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
-        <v>4391.840681985868</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5613,31 +5613,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>550.007178216661</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>381.0709952887541</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>381.0709952887541</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>381.0709952887541</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>234.1810477908438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5674,10 +5674,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1288.206478295169</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W19" t="n">
-        <v>998.7893082582085</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>770.7997573601912</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>550.007178216661</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,22 +5753,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>845.0839474760701</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1296.118160724479</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2274.668463554307</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N20" t="n">
-        <v>3254.420735780954</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>851.0327524903254</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C22" t="n">
-        <v>686.697901723176</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D22" t="n">
-        <v>536.5812623108402</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E22" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5923,16 +5923,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
         <v>1764.65758193153</v>
@@ -5941,19 +5941,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.890966501056</v>
+        <v>1002.696517454809</v>
       </c>
       <c r="W22" t="n">
-        <v>1253.473796464095</v>
+        <v>713.2793474178487</v>
       </c>
       <c r="X22" t="n">
-        <v>1253.473796464095</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y22" t="n">
-        <v>1032.681217320565</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972662</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2536.153662641309</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443162</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.722831322499</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.070220408989</v>
@@ -6063,16 +6063,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>623.0432015923077</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.6836668953299</v>
@@ -6157,40 +6157,40 @@
         <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O25" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.890966501056</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W25" t="n">
-        <v>1253.473796464095</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X25" t="n">
-        <v>1025.484245566078</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y25" t="n">
-        <v>804.6916664225474</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195856</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N26" t="n">
-        <v>3195.001976422503</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996753</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G27" t="n">
         <v>205.070220408989</v>
@@ -6303,52 +6303,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.3002584566048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6382,13 +6382,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.6836668953299</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1258.355444221823</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>968.9382741848619</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>740.9487232868445</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>740.9487232868445</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6473,13 +6473,13 @@
         <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6546,13 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>301.0224619425385</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C31" t="n">
-        <v>243.4741280307875</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,13 +6619,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.657581931529</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057173</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1220.870226851286</v>
+        <v>927.5605395065638</v>
       </c>
       <c r="W31" t="n">
-        <v>931.4530568143257</v>
+        <v>638.1433694696032</v>
       </c>
       <c r="X31" t="n">
-        <v>703.4635059163083</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="Y31" t="n">
-        <v>482.6709267727782</v>
+        <v>410.1538185715858</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277722</v>
+        <v>348.0829740810742</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176176</v>
+        <v>1002.806306216374</v>
       </c>
       <c r="L32" t="n">
-        <v>1296.118160724485</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M32" t="n">
-        <v>2274.668463554312</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.420735780957</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660293</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193578</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320222</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.6138567886366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
         <v>95.56103444839442</v>
@@ -6856,52 +6856,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953297</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442057</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927013</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.3434661047</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931526</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501052</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.890966501052</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.206478295165</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>998.7893082582045</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>770.7997573601872</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>550.0071782166571</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.880346994159</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.005340067275</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464047</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470848</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347665</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840541</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N35" t="n">
-        <v>2969.999193969361</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.8612304285</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115848</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028165</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570207</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.046105152479</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4646447998178</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>571.9733873631765</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L36" t="n">
-        <v>654.1953552954348</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M36" t="n">
-        <v>1246.213709547562</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N36" t="n">
-        <v>1868.309672946898</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O36" t="n">
-        <v>1868.309672946898</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P36" t="n">
-        <v>2287.893191372974</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="Q36" t="n">
-        <v>2518.454465358221</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>792.5587387845815</v>
+        <v>495.0957149476003</v>
       </c>
       <c r="C37" t="n">
-        <v>705.5069469151398</v>
+        <v>495.0957149476003</v>
       </c>
       <c r="D37" t="n">
-        <v>555.5012053655271</v>
+        <v>344.9790755352645</v>
       </c>
       <c r="E37" t="n">
-        <v>407.6990096458571</v>
+        <v>344.9790755352645</v>
       </c>
       <c r="F37" t="n">
-        <v>260.9199600106699</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327806</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985992</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769883</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2430.250342194098</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2247.191049795751</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2027.623165372857</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U37" t="n">
-        <v>1738.657849550307</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1484.084259207143</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1194.777987032905</v>
+        <v>1125.526309819388</v>
       </c>
       <c r="X37" t="n">
-        <v>1194.777987032905</v>
+        <v>897.5367589213702</v>
       </c>
       <c r="Y37" t="n">
-        <v>974.096305752098</v>
+        <v>676.74417977784</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.229508727735</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.266991787324</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.001293180573</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.213040582329</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2271357927214</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470848</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9429223347665</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840541</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.752242696685</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428502</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.16717911585</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221856</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165443</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844762</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.713411564311</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.65052422074</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.434439028749</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.968680767669</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.829348791857</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647543</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>94.85569562249447</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>94.85569562249447</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K39" t="n">
-        <v>94.85569562249447</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L39" t="n">
-        <v>585.5880284662458</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M39" t="n">
-        <v>1177.606382718373</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="N39" t="n">
-        <v>1799.70234611771</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O39" t="n">
-        <v>2134.197151166055</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.780669592131</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>643.6981916404363</v>
+        <v>567.7486935666664</v>
       </c>
       <c r="C40" t="n">
-        <v>478.9652157984469</v>
+        <v>403.1266155874</v>
       </c>
       <c r="D40" t="n">
-        <v>478.9652157984469</v>
+        <v>257.3240811237047</v>
       </c>
       <c r="E40" t="n">
-        <v>335.2553293019712</v>
+        <v>257.3240811237047</v>
       </c>
       <c r="F40" t="n">
-        <v>335.2553293019712</v>
+        <v>114.748238574435</v>
       </c>
       <c r="G40" t="n">
-        <v>172.2443415624676</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>172.2443415624676</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024335</v>
+        <v>177.0587253013236</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379049</v>
+        <v>440.9157065320501</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859468</v>
+        <v>832.9057788753471</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095314</v>
+        <v>1256.363625179969</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151929</v>
+        <v>1675.287745231839</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431866</v>
+        <v>2046.538456507031</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532978</v>
+        <v>2341.297145603399</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351321</v>
+        <v>2463.238533416996</v>
       </c>
       <c r="R40" t="n">
-        <v>2398.68118239574</v>
+        <v>2399.693293324138</v>
       </c>
       <c r="S40" t="n">
-        <v>2297.56299112454</v>
+        <v>2220.837208011709</v>
       </c>
       <c r="T40" t="n">
-        <v>2082.087415924839</v>
+        <v>2005.472530674732</v>
       </c>
       <c r="U40" t="n">
-        <v>1797.214409325484</v>
+        <v>1720.710421938099</v>
       </c>
       <c r="V40" t="n">
-        <v>1546.733128205514</v>
+        <v>1470.340038680852</v>
       </c>
       <c r="W40" t="n">
-        <v>1261.519165254471</v>
+        <v>1185.236973592532</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.732821442371</v>
+        <v>961.5615276431554</v>
       </c>
       <c r="Y40" t="n">
-        <v>821.1434493847585</v>
+        <v>745.0830534482657</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2183.498949883218</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>238.7141959544563</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516144</v>
+        <v>729.4465287982083</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>921.98316218916</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>778.3953859427384</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>653.627153211888</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>531.0624663109801</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945551</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>267.6551373506194</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604307</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277199</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443886</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083873</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504289</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900156</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896368</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371967</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016491</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799959</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337914</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883218</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>833.5146841555818</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1455.610647554919</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>921.9831621891599</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>778.3953859427382</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>653.6271532118878</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>531.0624663109801</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>409.5209254945551</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>267.6551373506193</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>894.7529362604307</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873645</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277199</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501927</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443886</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083873</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504289</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900156</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896368</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371967</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016491</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799959</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337914</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>48.65289230147158</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>32.86979469803862</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>16.80057335908691</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,16 +8936,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>283.3156027685499</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9164,28 +9164,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>79.70465870845291</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>229.1155640189937</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>161.8544041422903</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>292.5685715191222</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>216.9877583263345</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>37.13651117804409</v>
       </c>
       <c r="O26" t="n">
-        <v>169.5026663584987</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,16 +10121,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>36.48628322062336</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>64.28566532692341</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>60.0189488469295</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>49.74439522492582</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10832,10 +10832,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O38" t="n">
-        <v>49.74439522492776</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>51.31264782908215</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782908215</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>3.556976973659253</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>66.80237168227227</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>53.73645647354682</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>200.1704191201152</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>28.79199505000332</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>4.555318839149919</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>3.556976973656801</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="C25" t="n">
-        <v>85.5099593138665</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696628</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>37.1103651968308</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.2739705259944</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>18.10451147494175</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.792591968197</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.3524204098382</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.9321526700475</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>105.0742887270127</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>80.95575826378452</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.34368079027723</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031318</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698771</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>144.454298003154</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>142.1629987474151</v>
       </c>
       <c r="F40" t="n">
-        <v>141.2598730078729</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>140.5801974594132</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768956</v>
+        <v>136.1830258927998</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>77.53361284525491</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>77.07030398491247</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1032854.501812959</v>
+        <v>1032793.132631317</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1035810.103378973</v>
+        <v>1035908.922432801</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1050487.920367036</v>
+        <v>1051100.593382115</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1050487.920367036</v>
+        <v>1051100.593382115</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="E2" t="n">
+        <v>377227.6975426339</v>
+      </c>
+      <c r="F2" t="n">
+        <v>377227.697542634</v>
+      </c>
+      <c r="G2" t="n">
+        <v>377227.697542634</v>
+      </c>
+      <c r="H2" t="n">
+        <v>377227.6975426343</v>
+      </c>
+      <c r="I2" t="n">
+        <v>377227.6975426339</v>
+      </c>
+      <c r="J2" t="n">
+        <v>377227.697542634</v>
+      </c>
+      <c r="K2" t="n">
+        <v>377227.6975426342</v>
+      </c>
+      <c r="L2" t="n">
         <v>377227.6975426341</v>
       </c>
-      <c r="F2" t="n">
-        <v>377227.6975426339</v>
-      </c>
-      <c r="G2" t="n">
-        <v>377227.6975426341</v>
-      </c>
-      <c r="H2" t="n">
-        <v>377227.6975426339</v>
-      </c>
-      <c r="I2" t="n">
-        <v>377227.697542634</v>
-      </c>
-      <c r="J2" t="n">
-        <v>377227.6975426342</v>
-      </c>
-      <c r="K2" t="n">
-        <v>377227.697542634</v>
-      </c>
-      <c r="L2" t="n">
-        <v>377227.6975426339</v>
-      </c>
       <c r="M2" t="n">
-        <v>383204.2531163546</v>
+        <v>383174.4141313157</v>
       </c>
       <c r="N2" t="n">
-        <v>384305.3595821246</v>
+        <v>384335.1985671633</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4.877520041191019e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485565</v>
+        <v>312970.0160233569</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769962</v>
+        <v>3416.771119324179</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.9383966838</v>
+        <v>16659.16697241311</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26424,40 +26424,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709184</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709189</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.607997092</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.96221767492</v>
+        <v>5069.915760662911</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725584</v>
+        <v>6475.275729222375</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.39591958976</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975159</v>
+        <v>13327.39591958976</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26491,25 +26491,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008168</v>
+        <v>101289.0951212766</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475038.7129848493</v>
+        <v>-475038.7129848492</v>
       </c>
       <c r="C6" t="n">
-        <v>114929.1662296953</v>
+        <v>114929.1662296954</v>
       </c>
       <c r="D6" t="n">
-        <v>114929.1662296952</v>
+        <v>114929.1662296954</v>
       </c>
       <c r="E6" t="n">
-        <v>-468152.8427015783</v>
+        <v>-468220.038191804</v>
       </c>
       <c r="F6" t="n">
-        <v>259224.5712918282</v>
+        <v>259157.3758016027</v>
       </c>
       <c r="G6" t="n">
-        <v>259224.5712918287</v>
+        <v>259157.3758016027</v>
       </c>
       <c r="H6" t="n">
-        <v>259224.5712918283</v>
+        <v>259157.3758016029</v>
       </c>
       <c r="I6" t="n">
-        <v>259224.5712918284</v>
+        <v>259157.3758016028</v>
       </c>
       <c r="J6" t="n">
-        <v>82801.35209923561</v>
+        <v>82734.15660900957</v>
       </c>
       <c r="K6" t="n">
-        <v>259224.5712918285</v>
+        <v>259157.3758016028</v>
       </c>
       <c r="L6" t="n">
-        <v>259224.5712918296</v>
+        <v>259157.3758016023</v>
       </c>
       <c r="M6" t="n">
-        <v>-35827.04417004972</v>
+        <v>-35831.45409180692</v>
       </c>
       <c r="N6" t="n">
-        <v>273318.3959188123</v>
+        <v>273124.2690072434</v>
       </c>
       <c r="O6" t="n">
-        <v>251554.2785351841</v>
+        <v>256968.5332870005</v>
       </c>
       <c r="P6" t="n">
-        <v>274382.2169318678</v>
+        <v>273627.7002594136</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26765,19 +26765,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130962453</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="O2" t="n">
-        <v>20.1234724769814</v>
+        <v>20.82395871551639</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,37 +26966,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.97087913365073e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230893</v>
+        <v>268.2643481230871</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>31.24313505902137</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.073418507654083</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>258.9088560886875</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>264.3044543105166</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>143.5000804901049</v>
       </c>
       <c r="E5" t="n">
-        <v>337.329508226348</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.66077927292486</v>
       </c>
       <c r="S7" t="n">
-        <v>208.2567046955524</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>59.05751900369783</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>154.0383522460834</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>96.9082241389418</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>118.7037666158191</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.109788884095854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.537044377341317</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015058308</v>
+        <v>4.270963899154046</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467044</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>25.09492261467045</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33275,7 +33275,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.38101186168159</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844659</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953982</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003799</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L32" t="n">
-        <v>691.356529362318</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M32" t="n">
-        <v>769.267349057498</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095009</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099045</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746402</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781681</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563564</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806932</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451117</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345271</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502562</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752242</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026434</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138787</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233464</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837986</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897024</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238308</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T33" t="n">
-        <v>9.44815837589848</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311876</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297387</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K34" t="n">
-        <v>228.317151370202</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098814</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316427</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023085996</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802165</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895877</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712198</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S34" t="n">
-        <v>34.2475727055303</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.39664015211228</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K35" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,7 +33728,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,34 +33737,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>221.6068726407411</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>201.1867228707729</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>428.3656332688715</v>
       </c>
       <c r="O39" t="n">
-        <v>480.469784897319</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>284.1705781691563</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391496</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>300.5543663814922</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>559.4959520157707</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.4398932701841</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>370.0610812534391</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
@@ -35422,13 +35422,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>353.9918599144875</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908547</v>
+        <v>682.0775889879218</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>741.2912249487529</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>330.4989635121724</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36121,16 +36121,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>566.3068505743942</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>700.775519972517</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36139,7 +36139,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>844.8704069320335</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>615.7497445457061</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636241</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>589.4383465909556</v>
       </c>
       <c r="O26" t="n">
-        <v>677.5556672467177</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,16 +36841,16 @@
         <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>588.7881186335346</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36923,7 +36923,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407856</v>
+        <v>255.0726662956361</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865553994</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L32" t="n">
-        <v>515.6090632392603</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230578</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248941</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882178</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908533</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037186</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222427</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597668</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K33" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340045</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013281</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004653</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525795</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859616</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127266</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306597</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934833</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226393</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P34" t="n">
-        <v>234.95707114511</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789334</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M35" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N35" t="n">
-        <v>794.4766961512956</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>83.05249286086695</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>61.20494878475137</v>
       </c>
       <c r="R36" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475634</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772317</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O38" t="n">
-        <v>739.5040280119362</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>297.0239211855382</v>
       </c>
       <c r="O39" t="n">
-        <v>337.8735404528746</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.9410971257188</v>
+        <v>84.05088600981473</v>
       </c>
       <c r="K40" t="n">
-        <v>266.412414379264</v>
+        <v>266.5222032633601</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394363</v>
+        <v>395.9495680235324</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034011</v>
+        <v>427.7351982874972</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359743</v>
+        <v>423.1556768200704</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756942</v>
+        <v>375.0007184597903</v>
       </c>
       <c r="P40" t="n">
-        <v>297.6262607081942</v>
+        <v>297.7360495922902</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0633301195382</v>
+        <v>123.1731190036341</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902961</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554531</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>146.3291391947973</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558163</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788765</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390488</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030136</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355869</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753068</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078066</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191505</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554531</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>161.999986601618</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>416.8997075713263</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253311</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788765</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390489</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030136</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355869</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753068</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078066</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191505</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
